--- a/OpenWeather/OpenWeather.xlsx
+++ b/OpenWeather/OpenWeather.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.GISPython\OpenWeather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F186839-1CF9-4BE2-8C68-DC3725F5DC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBB89C6-2E45-464F-9F0F-C4E47109CE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{255DF410-1ED3-44BF-8215-5BD0BC512A37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{255DF410-1ED3-44BF-8215-5BD0BC512A37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="50">
   <si>
     <t xml:space="preserve"> 2022/01/06 00:00:00</t>
   </si>
@@ -171,6 +172,21 @@
   <si>
     <t>Max</t>
   </si>
+  <si>
+    <t>station</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUMICHACA - AUT [52057100] </t>
+  </si>
+  <si>
+    <t>julian</t>
+  </si>
+  <si>
+    <t>LA JOSEFINA - AUT [52055170]</t>
+  </si>
 </sst>
 </file>
 
@@ -204,9 +220,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -215,6 +234,12 @@
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,1421 +920,7315 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A38605B-68F5-4F8D-BEA9-692C4AEC1B09}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>5.0274510000000001</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>-73.996916999999996</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="4">
         <v>44564</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>56</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>9.1199999999999992</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>11.68</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>81</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="3">
         <v>1017</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="3">
         <v>0.15</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="3">
         <v>12.28</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="3">
         <v>0</v>
       </c>
-      <c r="N2" s="2">
-        <v>10000</v>
-      </c>
-      <c r="O2" s="2">
+      <c r="N2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O2" s="3">
         <v>84</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="3">
         <v>1.51</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="3">
         <v>1.69</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>5.0274510000000001</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>-73.996916999999996</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="4">
         <v>44564</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>82</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>11.31</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>13.43</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>85</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
         <v>1019</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="3">
         <v>13.78</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="3">
         <v>0</v>
       </c>
-      <c r="N3" s="2">
-        <v>10000</v>
-      </c>
-      <c r="O3" s="2">
+      <c r="N3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O3" s="3">
         <v>80</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="3">
         <v>1.76</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="3">
         <v>2.02</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>5.0274510000000001</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>-73.996916999999996</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="4">
         <v>44564</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>91</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>11.18</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>12.46</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>90</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <v>1020</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="3">
         <v>12.78</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="3">
         <v>0</v>
       </c>
-      <c r="N4" s="2">
-        <v>10000</v>
-      </c>
-      <c r="O4" s="2">
+      <c r="N4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O4" s="3">
         <v>81</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="3">
         <v>1.68</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="3">
         <v>1.9</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>5.0274510000000001</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>-73.996916999999996</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4">
         <v>44564</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>0.125</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>94</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>10.52</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>11.42</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>92</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>1021</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="3">
         <v>11.78</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="3">
         <v>0</v>
       </c>
-      <c r="N5" s="2">
-        <v>10000</v>
-      </c>
-      <c r="O5" s="2">
+      <c r="N5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O5" s="3">
         <v>73</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="3">
         <v>1.39</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="3">
         <v>1.49</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>5.0274510000000001</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>-73.996916999999996</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="4">
         <v>44564</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>95</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>9.5299999999999994</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>10.32</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>92</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <v>1021</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="3">
         <v>10.78</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="3">
         <v>0</v>
       </c>
-      <c r="N6" s="2">
-        <v>10000</v>
-      </c>
-      <c r="O6" s="2">
+      <c r="N6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O6" s="3">
         <v>79</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="3">
         <v>1.19</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="3">
         <v>1.19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>5.0274510000000001</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>-73.996916999999996</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="4">
         <v>44564</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>96</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>7.39</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>8.7799999999999994</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <v>91</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="3">
         <v>1020</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="3">
         <v>8.7799999999999994</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="3">
         <v>0</v>
       </c>
-      <c r="N7" s="2">
-        <v>10000</v>
-      </c>
-      <c r="O7" s="2">
+      <c r="N7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O7" s="3">
         <v>86</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="3">
         <v>1.01</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="3">
         <v>1.01</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>5.0274510000000001</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>-73.996916999999996</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="4">
         <v>44564</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>0.25</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>45</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>7.23</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>8.7799999999999994</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3">
         <v>90</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="3">
         <v>1020</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="3">
         <v>8.7799999999999994</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="2">
-        <v>10000</v>
-      </c>
-      <c r="O8" s="2">
+      <c r="N8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O8" s="3">
         <v>75</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="3">
         <v>0.93</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="3">
         <v>0.91</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>5.0274510000000001</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>-73.996916999999996</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4">
         <v>44564</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>54</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>6.9</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <v>8.7799999999999994</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="3">
         <v>88</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="3">
         <v>1019</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="3">
         <v>8.7799999999999994</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="2">
-        <v>10000</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="N9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O9" s="3">
         <v>66</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="3">
         <v>0.73</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="3">
         <v>0.68</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>5.0274510000000001</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>-73.996916999999996</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="4">
         <v>44564</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>54</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>6.74</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="3">
         <v>8.7799999999999994</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="3">
         <v>87</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="3">
         <v>1019</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="3">
         <v>8.7799999999999994</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="2">
-        <v>10000</v>
-      </c>
-      <c r="O10" s="2">
+      <c r="N10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O10" s="3">
         <v>52</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="3">
         <v>0.83</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="3">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>5.0274510000000001</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>-73.996916999999996</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4">
         <v>44564</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>0.375</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>57</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>6.57</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <v>8.7799999999999994</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="3">
         <v>86</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="3">
         <v>1019</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="3">
         <v>8.7799999999999994</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="3">
         <v>0</v>
       </c>
-      <c r="N11" s="2">
-        <v>10000</v>
-      </c>
-      <c r="O11" s="2">
+      <c r="N11" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O11" s="3">
         <v>25</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="3">
         <v>0.9</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="3">
         <v>0.63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>5.0274510000000001</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>-73.996916999999996</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="4">
         <v>44564</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>61</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="3">
         <v>7.72</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="3">
         <v>9.7799999999999994</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="3">
         <v>87</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="3">
         <v>1019</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="3">
         <v>9.7799999999999994</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="2">
-        <v>10000</v>
-      </c>
-      <c r="O12" s="2">
+      <c r="N12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O12" s="3">
         <v>26</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="3">
         <v>1.24</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="3">
         <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>5.0274510000000001</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>-73.996916999999996</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="4">
         <v>44564</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>62</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <v>7.89</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="3">
         <v>9.7799999999999994</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="3">
         <v>88</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="3">
         <v>1019</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="3">
         <v>9.7799999999999994</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="2">
-        <v>10000</v>
-      </c>
-      <c r="O13" s="2">
+      <c r="N13" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O13" s="3">
         <v>13</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="3">
         <v>0.99</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="3">
         <v>0.89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>5.0274510000000001</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>-73.996916999999996</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4">
         <v>44564</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <v>0.5</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <v>7.89</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="3">
         <v>9.7799999999999994</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="3">
         <v>88</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="3">
         <v>1020</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="3">
         <v>9.7799999999999994</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="3">
         <v>0.06</v>
       </c>
-      <c r="N14" s="2">
-        <v>10000</v>
-      </c>
-      <c r="O14" s="2">
+      <c r="N14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O14" s="3">
         <v>347</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="3">
         <v>0.8</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="3">
         <v>0.63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>5.0274510000000001</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>-73.996916999999996</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="4">
         <v>44564</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="5">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="3">
         <v>9.9700000000000006</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="3">
         <v>12.28</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="3">
         <v>83</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="3">
         <v>1020</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="3">
         <v>12.78</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="N15" s="2">
-        <v>10000</v>
-      </c>
-      <c r="O15" s="2">
+      <c r="N15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O15" s="3">
         <v>288</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="3">
         <v>0.7</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="3">
         <v>0.66</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>5.0274510000000001</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>-73.996916999999996</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="4">
         <v>44564</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>100</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="3">
         <v>14.25</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="3">
         <v>74</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="3">
         <v>1019</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="3">
         <v>14.78</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="3">
         <v>5.24</v>
       </c>
-      <c r="N16" s="2">
-        <v>10000</v>
-      </c>
-      <c r="O16" s="2">
+      <c r="N16" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O16" s="3">
         <v>296</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="3">
         <v>0.69</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="3">
         <v>0.41</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>5.0274510000000001</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>-73.996916999999996</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="4">
         <v>44564</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <v>0.625</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="3">
         <v>10.41</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="3">
         <v>17.23</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="3">
         <v>62</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="3">
         <v>1018</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="3">
         <v>17.78</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="3">
         <v>8.7899999999999991</v>
       </c>
-      <c r="N17" s="2">
-        <v>10000</v>
-      </c>
-      <c r="O17" s="2">
+      <c r="N17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O17" s="3">
         <v>223</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="3">
         <v>1.1100000000000001</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="3">
         <v>0.62</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>5.0274510000000001</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>-73.996916999999996</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="4">
         <v>44564</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="3">
         <v>11.03</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="3">
         <v>19.3</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="3">
         <v>57</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="3">
         <v>1017</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="3">
         <v>0.25</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="3">
         <v>19.78</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="3">
         <v>10.32</v>
       </c>
-      <c r="N18" s="2">
-        <v>10000</v>
-      </c>
-      <c r="O18" s="2">
+      <c r="N18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O18" s="3">
         <v>255</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="3">
         <v>1.66</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="3">
         <v>1.49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>5.0274510000000001</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>-73.996916999999996</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="4">
         <v>44564</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>100</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="3">
         <v>12.99</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="3">
         <v>20.51</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="3">
         <v>61</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="3">
         <v>1015</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="3">
         <v>0.51</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="3">
         <v>20.78</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="3">
         <v>11.17</v>
       </c>
-      <c r="N19" s="2">
-        <v>10000</v>
-      </c>
-      <c r="O19" s="2">
+      <c r="N19" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O19" s="3">
         <v>280</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P19" s="3">
         <v>2.04</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19" s="3">
         <v>2.29</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>5.0274510000000001</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>-73.996916999999996</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="C20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="4">
         <v>44564</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="5">
         <v>0.75</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>83</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="3">
         <v>15.62</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="3">
         <v>21.79</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="3">
         <v>68</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="3">
         <v>1014</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="3">
         <v>0.89</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="3">
         <v>21.78</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="3">
         <v>10.06</v>
       </c>
-      <c r="N20" s="2">
-        <v>10000</v>
-      </c>
-      <c r="O20" s="2">
+      <c r="N20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O20" s="3">
         <v>311</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20" s="3">
         <v>1.48</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="3">
         <v>2.44</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>5.0274510000000001</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>-73.996916999999996</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="C21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="4">
         <v>44564</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>84</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="3">
         <v>17.36</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="3">
         <v>22</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="3">
         <v>76</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="3">
         <v>1014</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="3">
         <v>0.82</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="3">
         <v>21.78</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="3">
         <v>5.98</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="3">
         <v>8186</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="3">
         <v>353</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P21" s="3">
         <v>2.73</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q21" s="3">
         <v>2.44</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>5.0274510000000001</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>-73.996916999999996</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="4">
         <v>44564</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="5">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <v>87</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="3">
         <v>14.26</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="3">
         <v>18.670000000000002</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="3">
         <v>75</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="3">
         <v>1013</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="3">
         <v>1.04</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="3">
         <v>18.78</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="3">
         <v>3.43</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="3">
         <v>9893</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="3">
         <v>12</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P22" s="3">
         <v>2.2599999999999998</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22" s="3">
         <v>1.9</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>5.0274510000000001</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>-73.996916999999996</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="4">
         <v>44564</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="5">
         <v>0.875</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="3">
         <v>90</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="3">
         <v>13.7</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="3">
         <v>17.62</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="3">
         <v>77</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="3">
         <v>1013</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="3">
         <v>0.73</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="3">
         <v>17.78</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="3">
         <v>1.36</v>
       </c>
-      <c r="N23" s="2">
-        <v>10000</v>
-      </c>
-      <c r="O23" s="2">
+      <c r="N23" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O23" s="3">
         <v>22</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P23" s="3">
         <v>1.62</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="3">
         <v>0.94</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>5.0274510000000001</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>-73.996916999999996</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="C24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="4">
         <v>44564</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="5">
         <v>0.91666666666666663</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="3">
         <v>89</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="3">
         <v>13.31</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="3">
         <v>16.600000000000001</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="3">
         <v>80</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="3">
         <v>1014</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="3">
         <v>16.78</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N24" s="2">
-        <v>10000</v>
-      </c>
-      <c r="O24" s="2">
+      <c r="N24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O24" s="3">
         <v>50</v>
       </c>
-      <c r="P24" s="2">
+      <c r="P24" s="3">
         <v>1.08</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q24" s="3">
         <v>0.32</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>5.0274510000000001</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>-73.996916999999996</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="4">
         <v>44564</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="5">
         <v>0.95833333333333337</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="3">
         <v>91</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="3">
         <v>12.46</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="3">
         <v>14.56</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="3">
         <v>86</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="3">
         <v>1016</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="3">
         <v>0.37</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="3">
         <v>14.78</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="2">
-        <v>10000</v>
-      </c>
-      <c r="O25" s="2">
+      <c r="N25" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O25" s="3">
         <v>73</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P25" s="3">
         <v>1.04</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="3">
         <v>0.79</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="3">
         <f>AVERAGE(F2:F25)</f>
         <v>82.125</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="3">
         <f t="shared" ref="G26:Q26" si="0">AVERAGE(G2:G25)</f>
         <v>10.470833333333333</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="3">
         <f t="shared" si="0"/>
         <v>13.64</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="3">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="3">
         <f t="shared" si="0"/>
         <v>1017.75</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="3">
         <f t="shared" si="0"/>
         <v>0.59000000000000008</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="3">
         <f t="shared" si="0"/>
         <v>13.842499999999996</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="3">
         <f t="shared" si="0"/>
         <v>2.4537500000000003</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="3">
         <f t="shared" si="0"/>
         <v>9919.9583333333339</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="3">
         <f t="shared" si="0"/>
         <v>135.41666666666666</v>
       </c>
-      <c r="P26" s="2">
+      <c r="P26" s="3">
         <f t="shared" si="0"/>
         <v>1.3070833333333336</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q26" s="3">
         <f t="shared" si="0"/>
         <v>1.21</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="3">
         <f>SUM(K2:K26)</f>
         <v>5.9</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="3">
         <f>MAX(F2:F25)</f>
         <v>100</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="3">
         <f t="shared" ref="G28:Q28" si="1">MAX(G2:G25)</f>
         <v>17.36</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="3">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="3">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="3">
         <f t="shared" si="1"/>
         <v>1021</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="3">
         <f t="shared" si="1"/>
         <v>1.04</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="3">
         <f t="shared" si="1"/>
         <v>21.78</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="3">
         <f t="shared" si="1"/>
         <v>11.17</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="3">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="3">
         <f t="shared" si="1"/>
         <v>353</v>
       </c>
-      <c r="P28" s="2">
+      <c r="P28" s="3">
         <f t="shared" si="1"/>
         <v>2.73</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="Q28" s="3">
         <f t="shared" si="1"/>
         <v>2.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E0D70F-33D6-437B-9A68-DCBBFF55124A}">
+  <dimension ref="A1:T97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M97" sqref="M2:M97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="6">
+        <v>44569</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H2" s="2">
+        <v>88</v>
+      </c>
+      <c r="I2" s="2">
+        <v>10.49</v>
+      </c>
+      <c r="J2" s="2">
+        <v>19.25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>55</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1015</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="N2" s="2">
+        <v>19.78</v>
+      </c>
+      <c r="O2" s="2">
+        <v>10.63</v>
+      </c>
+      <c r="P2" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>263</v>
+      </c>
+      <c r="R2" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="S2" s="2">
+        <v>2.21</v>
+      </c>
+      <c r="T2" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="6">
+        <v>44569</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H3" s="2">
+        <v>88</v>
+      </c>
+      <c r="I3" s="2">
+        <v>10.54</v>
+      </c>
+      <c r="J3" s="2">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="K3" s="2">
+        <v>56</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1015</v>
+      </c>
+      <c r="N3" s="2">
+        <v>19.54</v>
+      </c>
+      <c r="O3" s="2">
+        <v>9.58</v>
+      </c>
+      <c r="P3" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>271</v>
+      </c>
+      <c r="R3" s="2">
+        <v>2.41</v>
+      </c>
+      <c r="S3" s="2">
+        <v>2.72</v>
+      </c>
+      <c r="T3" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="6">
+        <v>44569</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H4" s="2">
+        <v>92</v>
+      </c>
+      <c r="I4" s="2">
+        <v>10.77</v>
+      </c>
+      <c r="J4" s="2">
+        <v>18.440000000000001</v>
+      </c>
+      <c r="K4" s="2">
+        <v>59</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1014</v>
+      </c>
+      <c r="N4" s="2">
+        <v>18.95</v>
+      </c>
+      <c r="O4" s="2">
+        <v>5.34</v>
+      </c>
+      <c r="P4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>269</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1.64</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="T4" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="6">
+        <v>44569</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H5" s="2">
+        <v>95</v>
+      </c>
+      <c r="I5" s="2">
+        <v>10.94</v>
+      </c>
+      <c r="J5" s="2">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="K5" s="2">
+        <v>64</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1014</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="N5" s="2">
+        <v>17.84</v>
+      </c>
+      <c r="O5" s="2">
+        <v>3.06</v>
+      </c>
+      <c r="P5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>239</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="T5" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="6">
+        <v>44569</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="H6" s="2">
+        <v>97</v>
+      </c>
+      <c r="I6" s="2">
+        <v>11.27</v>
+      </c>
+      <c r="J6" s="2">
+        <v>15.68</v>
+      </c>
+      <c r="K6" s="2">
+        <v>73</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1014</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="N6" s="2">
+        <v>16.11</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1.22</v>
+      </c>
+      <c r="P6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>248</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T6" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="6">
+        <v>44569</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H7" s="2">
+        <v>100</v>
+      </c>
+      <c r="I7" s="2">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="J7" s="2">
+        <v>14.09</v>
+      </c>
+      <c r="K7" s="2">
+        <v>80</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1015</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N7" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="P7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>210</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="T7" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="6">
+        <v>44569</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="H8" s="2">
+        <v>100</v>
+      </c>
+      <c r="I8" s="2">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="J8" s="2">
+        <v>12.36</v>
+      </c>
+      <c r="K8" s="2">
+        <v>86</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1016</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="N8" s="2">
+        <v>12.78</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>212</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="T8" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>100</v>
+      </c>
+      <c r="I9" s="2">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="J9" s="2">
+        <v>12.02</v>
+      </c>
+      <c r="K9" s="2">
+        <v>88</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1017</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="N9" s="2">
+        <v>12.42</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>184</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G10" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>100</v>
+      </c>
+      <c r="I10" s="2">
+        <v>9.61</v>
+      </c>
+      <c r="J10" s="2">
+        <v>12.13</v>
+      </c>
+      <c r="K10" s="2">
+        <v>89</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1018</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="N10" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>183</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="T10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G11" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>98</v>
+      </c>
+      <c r="I11" s="2">
+        <v>9.52</v>
+      </c>
+      <c r="J11" s="2">
+        <v>11.72</v>
+      </c>
+      <c r="K11" s="2">
+        <v>90</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1019</v>
+      </c>
+      <c r="N11" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>156</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="T11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="H12" s="2">
+        <v>97</v>
+      </c>
+      <c r="I12" s="2">
+        <v>9.51</v>
+      </c>
+      <c r="J12" s="2">
+        <v>11.44</v>
+      </c>
+      <c r="K12" s="2">
+        <v>92</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1020</v>
+      </c>
+      <c r="N12" s="2">
+        <v>11.8</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>143</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="T12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H13" s="2">
+        <v>97</v>
+      </c>
+      <c r="I13" s="2">
+        <v>9.42</v>
+      </c>
+      <c r="J13" s="2">
+        <v>11.25</v>
+      </c>
+      <c r="K13" s="2">
+        <v>92</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1020</v>
+      </c>
+      <c r="N13" s="2">
+        <v>11.63</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>173</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="T13" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H14" s="2">
+        <v>97</v>
+      </c>
+      <c r="I14" s="2">
+        <v>9.43</v>
+      </c>
+      <c r="J14" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>93</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1019</v>
+      </c>
+      <c r="N14" s="2">
+        <v>11.56</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>157</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="T14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H15" s="2">
+        <v>97</v>
+      </c>
+      <c r="I15" s="2">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="J15" s="2">
+        <v>11</v>
+      </c>
+      <c r="K15" s="2">
+        <v>94</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1019</v>
+      </c>
+      <c r="N15" s="2">
+        <v>11.35</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>91</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="S15" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T15" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H16" s="2">
+        <v>99</v>
+      </c>
+      <c r="I16" s="2">
+        <v>9.41</v>
+      </c>
+      <c r="J16" s="2">
+        <v>11.02</v>
+      </c>
+      <c r="K16" s="2">
+        <v>94</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1018</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="N16" s="2">
+        <v>11.37</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>236</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T16" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H17" s="2">
+        <v>99</v>
+      </c>
+      <c r="I17" s="2">
+        <v>9.48</v>
+      </c>
+      <c r="J17" s="2">
+        <v>11.03</v>
+      </c>
+      <c r="K17" s="2">
+        <v>94</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1017</v>
+      </c>
+      <c r="N17" s="2">
+        <v>11.38</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>225</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="T17" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="H18" s="2">
+        <v>98</v>
+      </c>
+      <c r="I18" s="2">
+        <v>9.35</v>
+      </c>
+      <c r="J18" s="2">
+        <v>10.83</v>
+      </c>
+      <c r="K18" s="2">
+        <v>95</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1017</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="N18" s="2">
+        <v>11.18</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>223</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="T18" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H19" s="2">
+        <v>96</v>
+      </c>
+      <c r="I19" s="2">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="J19" s="2">
+        <v>10.47</v>
+      </c>
+      <c r="K19" s="2">
+        <v>95</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1018</v>
+      </c>
+      <c r="N19" s="2">
+        <v>10.85</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>244</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="T19" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H20" s="2">
+        <v>93</v>
+      </c>
+      <c r="I20" s="2">
+        <v>8.76</v>
+      </c>
+      <c r="J20" s="2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K20" s="2">
+        <v>95</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1018</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="N20" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>253</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="T20" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="2">
+        <v>93</v>
+      </c>
+      <c r="I21" s="2">
+        <v>9.43</v>
+      </c>
+      <c r="J21" s="2">
+        <v>11.25</v>
+      </c>
+      <c r="K21" s="2">
+        <v>93</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1019</v>
+      </c>
+      <c r="N21" s="2">
+        <v>11.61</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="P21" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>211</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="T21" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H22" s="2">
+        <v>92</v>
+      </c>
+      <c r="I22" s="2">
+        <v>9.89</v>
+      </c>
+      <c r="J22" s="2">
+        <v>12.37</v>
+      </c>
+      <c r="K22" s="2">
+        <v>89</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1019</v>
+      </c>
+      <c r="N22" s="2">
+        <v>12.72</v>
+      </c>
+      <c r="O22" s="2">
+        <v>2.15</v>
+      </c>
+      <c r="P22" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>234</v>
+      </c>
+      <c r="R22" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="S22" s="2">
+        <v>1.29</v>
+      </c>
+      <c r="T22" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D23" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H23" s="2">
+        <v>91</v>
+      </c>
+      <c r="I23" s="2">
+        <v>10.38</v>
+      </c>
+      <c r="J23" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="K23" s="2">
+        <v>84</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1019</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="N23" s="2">
+        <v>14.05</v>
+      </c>
+      <c r="O23" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P23" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>247</v>
+      </c>
+      <c r="R23" s="2">
+        <v>1.54</v>
+      </c>
+      <c r="S23" s="2">
+        <v>1.79</v>
+      </c>
+      <c r="T23" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D24" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="H24" s="2">
+        <v>92</v>
+      </c>
+      <c r="I24" s="2">
+        <v>10.33</v>
+      </c>
+      <c r="J24" s="2">
+        <v>14.74</v>
+      </c>
+      <c r="K24" s="2">
+        <v>78</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1018</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="N24" s="2">
+        <v>15.13</v>
+      </c>
+      <c r="O24" s="2">
+        <v>8.56</v>
+      </c>
+      <c r="P24" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>250</v>
+      </c>
+      <c r="R24" s="2">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="S24" s="2">
+        <v>1.72</v>
+      </c>
+      <c r="T24" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D25" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H25" s="2">
+        <v>93</v>
+      </c>
+      <c r="I25" s="2">
+        <v>10.02</v>
+      </c>
+      <c r="J25" s="2">
+        <v>15.17</v>
+      </c>
+      <c r="K25" s="2">
+        <v>74</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1017</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="N25" s="2">
+        <v>15.62</v>
+      </c>
+      <c r="O25" s="2">
+        <v>9.01</v>
+      </c>
+      <c r="P25" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>263</v>
+      </c>
+      <c r="R25" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="S25" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="T25" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D26" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H26" s="2">
+        <v>95</v>
+      </c>
+      <c r="I26" s="2">
+        <v>10.02</v>
+      </c>
+      <c r="J26" s="2">
+        <v>14.91</v>
+      </c>
+      <c r="K26" s="2">
+        <v>75</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1017</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="N26" s="2">
+        <v>15.36</v>
+      </c>
+      <c r="O26" s="2">
+        <v>9.75</v>
+      </c>
+      <c r="P26" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>306</v>
+      </c>
+      <c r="R26" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="S26" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="T26" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H27" s="2">
+        <v>96</v>
+      </c>
+      <c r="I27" s="2">
+        <v>10.32</v>
+      </c>
+      <c r="J27" s="2">
+        <v>14.57</v>
+      </c>
+      <c r="K27" s="2">
+        <v>79</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1016</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="N27" s="2">
+        <v>14.96</v>
+      </c>
+      <c r="O27" s="2">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="P27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>314</v>
+      </c>
+      <c r="R27" s="2">
+        <v>1.63</v>
+      </c>
+      <c r="S27" s="2">
+        <v>1.92</v>
+      </c>
+      <c r="T27" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D28" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H28" s="2">
+        <v>100</v>
+      </c>
+      <c r="I28" s="2">
+        <v>10.56</v>
+      </c>
+      <c r="J28" s="2">
+        <v>14.38</v>
+      </c>
+      <c r="K28" s="2">
+        <v>81</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1014</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="N28" s="2">
+        <v>14.74</v>
+      </c>
+      <c r="O28" s="2">
+        <v>4.08</v>
+      </c>
+      <c r="P28" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>302</v>
+      </c>
+      <c r="R28" s="2">
+        <v>1.36</v>
+      </c>
+      <c r="S28" s="2">
+        <v>1.53</v>
+      </c>
+      <c r="T28" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D29" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H29" s="2">
+        <v>100</v>
+      </c>
+      <c r="I29" s="2">
+        <v>10.77</v>
+      </c>
+      <c r="J29" s="2">
+        <v>14.51</v>
+      </c>
+      <c r="K29" s="2">
+        <v>82</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1014</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="N29" s="2">
+        <v>14.83</v>
+      </c>
+      <c r="O29" s="2">
+        <v>2.34</v>
+      </c>
+      <c r="P29" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>277</v>
+      </c>
+      <c r="R29" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="S29" s="2">
+        <v>1.32</v>
+      </c>
+      <c r="T29" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D30" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="H30" s="2">
+        <v>100</v>
+      </c>
+      <c r="I30" s="2">
+        <v>10.76</v>
+      </c>
+      <c r="J30" s="2">
+        <v>14.27</v>
+      </c>
+      <c r="K30" s="2">
+        <v>83</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1014</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="N30" s="2">
+        <v>14.59</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="P30" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>265</v>
+      </c>
+      <c r="R30" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S30" s="2">
+        <v>1.27</v>
+      </c>
+      <c r="T30" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D31" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H31" s="2">
+        <v>100</v>
+      </c>
+      <c r="I31" s="2">
+        <v>10.74</v>
+      </c>
+      <c r="J31" s="2">
+        <v>13.73</v>
+      </c>
+      <c r="K31" s="2">
+        <v>86</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1015</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="N31" s="2">
+        <v>14.03</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="P31" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>267</v>
+      </c>
+      <c r="R31" s="2">
+        <v>1.22</v>
+      </c>
+      <c r="S31" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="T31" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D32" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="H32" s="2">
+        <v>99</v>
+      </c>
+      <c r="I32" s="2">
+        <v>10.08</v>
+      </c>
+      <c r="J32" s="2">
+        <v>12.04</v>
+      </c>
+      <c r="K32" s="2">
+        <v>92</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1016</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="N32" s="2">
+        <v>12.35</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>271</v>
+      </c>
+      <c r="R32" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="S32" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="T32" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D33" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>99</v>
+      </c>
+      <c r="I33" s="2">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="J33" s="2">
+        <v>12.06</v>
+      </c>
+      <c r="K33" s="2">
+        <v>93</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1016</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="N33" s="2">
+        <v>12.34</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>292</v>
+      </c>
+      <c r="R33" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="S33" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="T33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D34" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G34" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H34" s="2">
+        <v>100</v>
+      </c>
+      <c r="I34" s="2">
+        <v>10.19</v>
+      </c>
+      <c r="J34" s="2">
+        <v>12.05</v>
+      </c>
+      <c r="K34" s="2">
+        <v>93</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1017</v>
+      </c>
+      <c r="N34" s="2">
+        <v>12.33</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>308</v>
+      </c>
+      <c r="R34" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="S34" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="T34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D35" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G35" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H35" s="2">
+        <v>99</v>
+      </c>
+      <c r="I35" s="2">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="J35" s="2">
+        <v>11.99</v>
+      </c>
+      <c r="K35" s="2">
+        <v>92</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1018</v>
+      </c>
+      <c r="N35" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>296</v>
+      </c>
+      <c r="R35" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="S35" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="T35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D36" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="H36" s="2">
+        <v>99</v>
+      </c>
+      <c r="I36" s="2">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="J36" s="2">
+        <v>11.8</v>
+      </c>
+      <c r="K36" s="2">
+        <v>92</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1018</v>
+      </c>
+      <c r="N36" s="2">
+        <v>12.13</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>318</v>
+      </c>
+      <c r="R36" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="S36" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="T36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D37" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H37" s="2">
+        <v>98</v>
+      </c>
+      <c r="I37" s="2">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="J37" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="K37" s="2">
+        <v>92</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1018</v>
+      </c>
+      <c r="N37" s="2">
+        <v>11.86</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>283</v>
+      </c>
+      <c r="R37" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="S37" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="T37" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D38" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H38" s="2">
+        <v>97</v>
+      </c>
+      <c r="I38" s="2">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="J38" s="2">
+        <v>11.27</v>
+      </c>
+      <c r="K38" s="2">
+        <v>91</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1017</v>
+      </c>
+      <c r="N38" s="2">
+        <v>11.67</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>283</v>
+      </c>
+      <c r="R38" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="S38" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="T38" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D39" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H39" s="2">
+        <v>97</v>
+      </c>
+      <c r="I39" s="2">
+        <v>9.02</v>
+      </c>
+      <c r="J39" s="2">
+        <v>11.09</v>
+      </c>
+      <c r="K39" s="2">
+        <v>90</v>
+      </c>
+      <c r="L39" s="2">
+        <v>1016</v>
+      </c>
+      <c r="N39" s="2">
+        <v>11.53</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>232</v>
+      </c>
+      <c r="R39" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="S39" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="T39" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D40" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H40" s="2">
+        <v>94</v>
+      </c>
+      <c r="I40" s="2">
+        <v>8.56</v>
+      </c>
+      <c r="J40" s="2">
+        <v>10.51</v>
+      </c>
+      <c r="K40" s="2">
+        <v>91</v>
+      </c>
+      <c r="L40" s="2">
+        <v>1016</v>
+      </c>
+      <c r="N40" s="2">
+        <v>10.98</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>252</v>
+      </c>
+      <c r="R40" s="2">
+        <v>1.32</v>
+      </c>
+      <c r="S40" s="2">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="T40" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D41" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H41" s="2">
+        <v>90</v>
+      </c>
+      <c r="I41" s="2">
+        <v>8.35</v>
+      </c>
+      <c r="J41" s="2">
+        <v>10.08</v>
+      </c>
+      <c r="K41" s="2">
+        <v>92</v>
+      </c>
+      <c r="L41" s="2">
+        <v>1016</v>
+      </c>
+      <c r="N41" s="2">
+        <v>10.57</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>263</v>
+      </c>
+      <c r="R41" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="S41" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="T41" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D42" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="H42" s="2">
+        <v>94</v>
+      </c>
+      <c r="I42" s="2">
+        <v>8</v>
+      </c>
+      <c r="J42" s="2">
+        <v>9.67</v>
+      </c>
+      <c r="K42" s="2">
+        <v>92</v>
+      </c>
+      <c r="L42" s="2">
+        <v>1016</v>
+      </c>
+      <c r="N42" s="2">
+        <v>10.19</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>256</v>
+      </c>
+      <c r="R42" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="S42" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="T42" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D43" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H43" s="2">
+        <v>95</v>
+      </c>
+      <c r="I43" s="2">
+        <v>7.84</v>
+      </c>
+      <c r="J43" s="2">
+        <v>9.49</v>
+      </c>
+      <c r="K43" s="2">
+        <v>92</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1017</v>
+      </c>
+      <c r="N43" s="2">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0</v>
+      </c>
+      <c r="P43" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>292</v>
+      </c>
+      <c r="R43" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="S43" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="T43" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D44" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H44" s="2">
+        <v>95</v>
+      </c>
+      <c r="I44" s="2">
+        <v>7.73</v>
+      </c>
+      <c r="J44" s="2">
+        <v>9.89</v>
+      </c>
+      <c r="K44" s="2">
+        <v>93</v>
+      </c>
+      <c r="L44" s="2">
+        <v>1018</v>
+      </c>
+      <c r="N44" s="2">
+        <v>9.89</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>315</v>
+      </c>
+      <c r="R44" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="S44" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="T44" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D45" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H45" s="2">
+        <v>96</v>
+      </c>
+      <c r="I45" s="2">
+        <v>8.32</v>
+      </c>
+      <c r="J45" s="2">
+        <v>10.38</v>
+      </c>
+      <c r="K45" s="2">
+        <v>90</v>
+      </c>
+      <c r="L45" s="2">
+        <v>1018</v>
+      </c>
+      <c r="N45" s="2">
+        <v>10.89</v>
+      </c>
+      <c r="O45" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="P45" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>304</v>
+      </c>
+      <c r="R45" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="S45" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="T45" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D46" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H46" s="2">
+        <v>96</v>
+      </c>
+      <c r="I46" s="2">
+        <v>8.77</v>
+      </c>
+      <c r="J46" s="2">
+        <v>12.19</v>
+      </c>
+      <c r="K46" s="2">
+        <v>82</v>
+      </c>
+      <c r="L46" s="2">
+        <v>1019</v>
+      </c>
+      <c r="N46" s="2">
+        <v>12.72</v>
+      </c>
+      <c r="O46" s="2">
+        <v>1.91</v>
+      </c>
+      <c r="P46" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>267</v>
+      </c>
+      <c r="R46" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="S46" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="T46" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D47" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H47" s="2">
+        <v>93</v>
+      </c>
+      <c r="I47" s="2">
+        <v>9.01</v>
+      </c>
+      <c r="J47" s="2">
+        <v>13.87</v>
+      </c>
+      <c r="K47" s="2">
+        <v>74</v>
+      </c>
+      <c r="L47" s="2">
+        <v>1018</v>
+      </c>
+      <c r="N47" s="2">
+        <v>14.44</v>
+      </c>
+      <c r="O47" s="2">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="P47" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>247</v>
+      </c>
+      <c r="R47" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="S47" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="T47" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D48" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="H48" s="2">
+        <v>92</v>
+      </c>
+      <c r="I48" s="2">
+        <v>9.16</v>
+      </c>
+      <c r="J48" s="2">
+        <v>15.18</v>
+      </c>
+      <c r="K48" s="2">
+        <v>69</v>
+      </c>
+      <c r="L48" s="2">
+        <v>1017</v>
+      </c>
+      <c r="N48" s="2">
+        <v>15.75</v>
+      </c>
+      <c r="O48" s="2">
+        <v>7.59</v>
+      </c>
+      <c r="P48" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>241</v>
+      </c>
+      <c r="R48" s="2">
+        <v>1.49</v>
+      </c>
+      <c r="S48" s="2">
+        <v>2.08</v>
+      </c>
+      <c r="T48" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>52057100</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.81378600000000001</v>
+      </c>
+      <c r="D49" s="2">
+        <v>-77.661978000000005</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H49" s="2">
+        <v>94</v>
+      </c>
+      <c r="I49" s="2">
+        <v>9.49</v>
+      </c>
+      <c r="J49" s="2">
+        <v>15.94</v>
+      </c>
+      <c r="K49" s="2">
+        <v>68</v>
+      </c>
+      <c r="L49" s="2">
+        <v>1016</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="N49" s="2">
+        <v>16.46</v>
+      </c>
+      <c r="O49" s="2">
+        <v>10.34</v>
+      </c>
+      <c r="P49" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>245</v>
+      </c>
+      <c r="R49" s="2">
+        <v>1.83</v>
+      </c>
+      <c r="S49" s="2">
+        <v>2.29</v>
+      </c>
+      <c r="T49" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D50" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="6">
+        <v>44569</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H50" s="2">
+        <v>88</v>
+      </c>
+      <c r="I50" s="2">
+        <v>10.49</v>
+      </c>
+      <c r="J50" s="2">
+        <v>19.25</v>
+      </c>
+      <c r="K50" s="2">
+        <v>55</v>
+      </c>
+      <c r="L50" s="2">
+        <v>1015</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="N50" s="2">
+        <v>19.78</v>
+      </c>
+      <c r="O50" s="2">
+        <v>10.63</v>
+      </c>
+      <c r="P50" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>263</v>
+      </c>
+      <c r="R50" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="S50" s="2">
+        <v>2.21</v>
+      </c>
+      <c r="T50" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D51" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="6">
+        <v>44569</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H51" s="2">
+        <v>88</v>
+      </c>
+      <c r="I51" s="2">
+        <v>10.54</v>
+      </c>
+      <c r="J51" s="2">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="K51" s="2">
+        <v>56</v>
+      </c>
+      <c r="L51" s="2">
+        <v>1015</v>
+      </c>
+      <c r="N51" s="2">
+        <v>19.54</v>
+      </c>
+      <c r="O51" s="2">
+        <v>9.58</v>
+      </c>
+      <c r="P51" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>271</v>
+      </c>
+      <c r="R51" s="2">
+        <v>2.41</v>
+      </c>
+      <c r="S51" s="2">
+        <v>2.72</v>
+      </c>
+      <c r="T51" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D52" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="6">
+        <v>44569</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H52" s="2">
+        <v>92</v>
+      </c>
+      <c r="I52" s="2">
+        <v>10.77</v>
+      </c>
+      <c r="J52" s="2">
+        <v>18.440000000000001</v>
+      </c>
+      <c r="K52" s="2">
+        <v>59</v>
+      </c>
+      <c r="L52" s="2">
+        <v>1014</v>
+      </c>
+      <c r="N52" s="2">
+        <v>18.95</v>
+      </c>
+      <c r="O52" s="2">
+        <v>5.34</v>
+      </c>
+      <c r="P52" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>269</v>
+      </c>
+      <c r="R52" s="2">
+        <v>1.64</v>
+      </c>
+      <c r="S52" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="T52" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D53" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="6">
+        <v>44569</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H53" s="2">
+        <v>95</v>
+      </c>
+      <c r="I53" s="2">
+        <v>10.94</v>
+      </c>
+      <c r="J53" s="2">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="K53" s="2">
+        <v>64</v>
+      </c>
+      <c r="L53" s="2">
+        <v>1014</v>
+      </c>
+      <c r="M53" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="N53" s="2">
+        <v>17.84</v>
+      </c>
+      <c r="O53" s="2">
+        <v>3.06</v>
+      </c>
+      <c r="P53" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>239</v>
+      </c>
+      <c r="R53" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="S53" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="T53" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D54" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" s="6">
+        <v>44569</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="H54" s="2">
+        <v>97</v>
+      </c>
+      <c r="I54" s="2">
+        <v>11.27</v>
+      </c>
+      <c r="J54" s="2">
+        <v>15.68</v>
+      </c>
+      <c r="K54" s="2">
+        <v>73</v>
+      </c>
+      <c r="L54" s="2">
+        <v>1014</v>
+      </c>
+      <c r="M54" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="N54" s="2">
+        <v>16.11</v>
+      </c>
+      <c r="O54" s="2">
+        <v>1.22</v>
+      </c>
+      <c r="P54" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>248</v>
+      </c>
+      <c r="R54" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="S54" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T54" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D55" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" s="6">
+        <v>44569</v>
+      </c>
+      <c r="G55" s="7">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H55" s="2">
+        <v>100</v>
+      </c>
+      <c r="I55" s="2">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="J55" s="2">
+        <v>14.09</v>
+      </c>
+      <c r="K55" s="2">
+        <v>80</v>
+      </c>
+      <c r="L55" s="2">
+        <v>1015</v>
+      </c>
+      <c r="M55" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N55" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="O55" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="P55" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>210</v>
+      </c>
+      <c r="R55" s="2">
+        <v>1</v>
+      </c>
+      <c r="S55" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="T55" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D56" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="6">
+        <v>44569</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="H56" s="2">
+        <v>100</v>
+      </c>
+      <c r="I56" s="2">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="J56" s="2">
+        <v>12.36</v>
+      </c>
+      <c r="K56" s="2">
+        <v>86</v>
+      </c>
+      <c r="L56" s="2">
+        <v>1016</v>
+      </c>
+      <c r="M56" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="N56" s="2">
+        <v>12.78</v>
+      </c>
+      <c r="O56" s="2">
+        <v>0</v>
+      </c>
+      <c r="P56" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>212</v>
+      </c>
+      <c r="R56" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="S56" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="T56" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D57" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G57" s="7">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
+        <v>100</v>
+      </c>
+      <c r="I57" s="2">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="J57" s="2">
+        <v>12.02</v>
+      </c>
+      <c r="K57" s="2">
+        <v>88</v>
+      </c>
+      <c r="L57" s="2">
+        <v>1017</v>
+      </c>
+      <c r="M57" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="N57" s="2">
+        <v>12.42</v>
+      </c>
+      <c r="O57" s="2">
+        <v>0</v>
+      </c>
+      <c r="P57" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>184</v>
+      </c>
+      <c r="R57" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="S57" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="T57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D58" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G58" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H58" s="2">
+        <v>100</v>
+      </c>
+      <c r="I58" s="2">
+        <v>9.61</v>
+      </c>
+      <c r="J58" s="2">
+        <v>12.13</v>
+      </c>
+      <c r="K58" s="2">
+        <v>89</v>
+      </c>
+      <c r="L58" s="2">
+        <v>1018</v>
+      </c>
+      <c r="M58" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="N58" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="O58" s="2">
+        <v>0</v>
+      </c>
+      <c r="P58" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>183</v>
+      </c>
+      <c r="R58" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="S58" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="T58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D59" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G59" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H59" s="2">
+        <v>98</v>
+      </c>
+      <c r="I59" s="2">
+        <v>9.52</v>
+      </c>
+      <c r="J59" s="2">
+        <v>11.72</v>
+      </c>
+      <c r="K59" s="2">
+        <v>90</v>
+      </c>
+      <c r="L59" s="2">
+        <v>1019</v>
+      </c>
+      <c r="N59" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="O59" s="2">
+        <v>0</v>
+      </c>
+      <c r="P59" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>156</v>
+      </c>
+      <c r="R59" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="S59" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="T59" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D60" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G60" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="H60" s="2">
+        <v>97</v>
+      </c>
+      <c r="I60" s="2">
+        <v>9.51</v>
+      </c>
+      <c r="J60" s="2">
+        <v>11.44</v>
+      </c>
+      <c r="K60" s="2">
+        <v>92</v>
+      </c>
+      <c r="L60" s="2">
+        <v>1020</v>
+      </c>
+      <c r="N60" s="2">
+        <v>11.8</v>
+      </c>
+      <c r="O60" s="2">
+        <v>0</v>
+      </c>
+      <c r="P60" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>143</v>
+      </c>
+      <c r="R60" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="S60" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="T60" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D61" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G61" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H61" s="2">
+        <v>97</v>
+      </c>
+      <c r="I61" s="2">
+        <v>9.42</v>
+      </c>
+      <c r="J61" s="2">
+        <v>11.25</v>
+      </c>
+      <c r="K61" s="2">
+        <v>92</v>
+      </c>
+      <c r="L61" s="2">
+        <v>1020</v>
+      </c>
+      <c r="N61" s="2">
+        <v>11.63</v>
+      </c>
+      <c r="O61" s="2">
+        <v>0</v>
+      </c>
+      <c r="P61" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>173</v>
+      </c>
+      <c r="R61" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S61" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="T61" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D62" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G62" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H62" s="2">
+        <v>97</v>
+      </c>
+      <c r="I62" s="2">
+        <v>9.43</v>
+      </c>
+      <c r="J62" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="K62" s="2">
+        <v>93</v>
+      </c>
+      <c r="L62" s="2">
+        <v>1019</v>
+      </c>
+      <c r="N62" s="2">
+        <v>11.56</v>
+      </c>
+      <c r="O62" s="2">
+        <v>0</v>
+      </c>
+      <c r="P62" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>157</v>
+      </c>
+      <c r="R62" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="S62" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="T62" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D63" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F63" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G63" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H63" s="2">
+        <v>97</v>
+      </c>
+      <c r="I63" s="2">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="J63" s="2">
+        <v>11</v>
+      </c>
+      <c r="K63" s="2">
+        <v>94</v>
+      </c>
+      <c r="L63" s="2">
+        <v>1019</v>
+      </c>
+      <c r="N63" s="2">
+        <v>11.35</v>
+      </c>
+      <c r="O63" s="2">
+        <v>0</v>
+      </c>
+      <c r="P63" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>91</v>
+      </c>
+      <c r="R63" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="S63" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T63" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D64" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G64" s="7">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H64" s="2">
+        <v>99</v>
+      </c>
+      <c r="I64" s="2">
+        <v>9.41</v>
+      </c>
+      <c r="J64" s="2">
+        <v>11.02</v>
+      </c>
+      <c r="K64" s="2">
+        <v>94</v>
+      </c>
+      <c r="L64" s="2">
+        <v>1018</v>
+      </c>
+      <c r="M64" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="N64" s="2">
+        <v>11.37</v>
+      </c>
+      <c r="O64" s="2">
+        <v>0</v>
+      </c>
+      <c r="P64" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>236</v>
+      </c>
+      <c r="R64" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="S64" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T64" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D65" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F65" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G65" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H65" s="2">
+        <v>99</v>
+      </c>
+      <c r="I65" s="2">
+        <v>9.48</v>
+      </c>
+      <c r="J65" s="2">
+        <v>11.03</v>
+      </c>
+      <c r="K65" s="2">
+        <v>94</v>
+      </c>
+      <c r="L65" s="2">
+        <v>1017</v>
+      </c>
+      <c r="N65" s="2">
+        <v>11.38</v>
+      </c>
+      <c r="O65" s="2">
+        <v>0</v>
+      </c>
+      <c r="P65" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>225</v>
+      </c>
+      <c r="R65" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="S65" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="T65" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D66" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F66" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G66" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="H66" s="2">
+        <v>98</v>
+      </c>
+      <c r="I66" s="2">
+        <v>9.35</v>
+      </c>
+      <c r="J66" s="2">
+        <v>10.83</v>
+      </c>
+      <c r="K66" s="2">
+        <v>95</v>
+      </c>
+      <c r="L66" s="2">
+        <v>1017</v>
+      </c>
+      <c r="M66" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="N66" s="2">
+        <v>11.18</v>
+      </c>
+      <c r="O66" s="2">
+        <v>0</v>
+      </c>
+      <c r="P66" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>223</v>
+      </c>
+      <c r="R66" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="S66" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="T66" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D67" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G67" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H67" s="2">
+        <v>96</v>
+      </c>
+      <c r="I67" s="2">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="J67" s="2">
+        <v>10.47</v>
+      </c>
+      <c r="K67" s="2">
+        <v>95</v>
+      </c>
+      <c r="L67" s="2">
+        <v>1018</v>
+      </c>
+      <c r="N67" s="2">
+        <v>10.85</v>
+      </c>
+      <c r="O67" s="2">
+        <v>0</v>
+      </c>
+      <c r="P67" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>244</v>
+      </c>
+      <c r="R67" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="S67" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="T67" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D68" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G68" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H68" s="2">
+        <v>93</v>
+      </c>
+      <c r="I68" s="2">
+        <v>8.76</v>
+      </c>
+      <c r="J68" s="2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K68" s="2">
+        <v>95</v>
+      </c>
+      <c r="L68" s="2">
+        <v>1018</v>
+      </c>
+      <c r="M68" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="N68" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="O68" s="2">
+        <v>0</v>
+      </c>
+      <c r="P68" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>253</v>
+      </c>
+      <c r="R68" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="S68" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="T68" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D69" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G69" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H69" s="2">
+        <v>93</v>
+      </c>
+      <c r="I69" s="2">
+        <v>9.43</v>
+      </c>
+      <c r="J69" s="2">
+        <v>11.25</v>
+      </c>
+      <c r="K69" s="2">
+        <v>93</v>
+      </c>
+      <c r="L69" s="2">
+        <v>1019</v>
+      </c>
+      <c r="N69" s="2">
+        <v>11.61</v>
+      </c>
+      <c r="O69" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="P69" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>211</v>
+      </c>
+      <c r="R69" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="S69" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="T69" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D70" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G70" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H70" s="2">
+        <v>92</v>
+      </c>
+      <c r="I70" s="2">
+        <v>9.89</v>
+      </c>
+      <c r="J70" s="2">
+        <v>12.37</v>
+      </c>
+      <c r="K70" s="2">
+        <v>89</v>
+      </c>
+      <c r="L70" s="2">
+        <v>1019</v>
+      </c>
+      <c r="N70" s="2">
+        <v>12.72</v>
+      </c>
+      <c r="O70" s="2">
+        <v>2.15</v>
+      </c>
+      <c r="P70" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>234</v>
+      </c>
+      <c r="R70" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="S70" s="2">
+        <v>1.29</v>
+      </c>
+      <c r="T70" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D71" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F71" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G71" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H71" s="2">
+        <v>91</v>
+      </c>
+      <c r="I71" s="2">
+        <v>10.38</v>
+      </c>
+      <c r="J71" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="K71" s="2">
+        <v>84</v>
+      </c>
+      <c r="L71" s="2">
+        <v>1019</v>
+      </c>
+      <c r="M71" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="N71" s="2">
+        <v>14.05</v>
+      </c>
+      <c r="O71" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P71" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>247</v>
+      </c>
+      <c r="R71" s="2">
+        <v>1.54</v>
+      </c>
+      <c r="S71" s="2">
+        <v>1.79</v>
+      </c>
+      <c r="T71" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D72" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F72" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G72" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="H72" s="2">
+        <v>92</v>
+      </c>
+      <c r="I72" s="2">
+        <v>10.33</v>
+      </c>
+      <c r="J72" s="2">
+        <v>14.74</v>
+      </c>
+      <c r="K72" s="2">
+        <v>78</v>
+      </c>
+      <c r="L72" s="2">
+        <v>1018</v>
+      </c>
+      <c r="M72" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="N72" s="2">
+        <v>15.13</v>
+      </c>
+      <c r="O72" s="2">
+        <v>8.56</v>
+      </c>
+      <c r="P72" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>250</v>
+      </c>
+      <c r="R72" s="2">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="S72" s="2">
+        <v>1.72</v>
+      </c>
+      <c r="T72" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D73" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F73" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G73" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H73" s="2">
+        <v>93</v>
+      </c>
+      <c r="I73" s="2">
+        <v>10.02</v>
+      </c>
+      <c r="J73" s="2">
+        <v>15.17</v>
+      </c>
+      <c r="K73" s="2">
+        <v>74</v>
+      </c>
+      <c r="L73" s="2">
+        <v>1017</v>
+      </c>
+      <c r="M73" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="N73" s="2">
+        <v>15.62</v>
+      </c>
+      <c r="O73" s="2">
+        <v>9.01</v>
+      </c>
+      <c r="P73" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>263</v>
+      </c>
+      <c r="R73" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="S73" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="T73" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D74" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F74" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G74" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H74" s="2">
+        <v>95</v>
+      </c>
+      <c r="I74" s="2">
+        <v>10.02</v>
+      </c>
+      <c r="J74" s="2">
+        <v>14.91</v>
+      </c>
+      <c r="K74" s="2">
+        <v>75</v>
+      </c>
+      <c r="L74" s="2">
+        <v>1017</v>
+      </c>
+      <c r="M74" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="N74" s="2">
+        <v>15.36</v>
+      </c>
+      <c r="O74" s="2">
+        <v>9.75</v>
+      </c>
+      <c r="P74" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>306</v>
+      </c>
+      <c r="R74" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="S74" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="T74" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D75" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G75" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H75" s="2">
+        <v>96</v>
+      </c>
+      <c r="I75" s="2">
+        <v>10.32</v>
+      </c>
+      <c r="J75" s="2">
+        <v>14.57</v>
+      </c>
+      <c r="K75" s="2">
+        <v>79</v>
+      </c>
+      <c r="L75" s="2">
+        <v>1016</v>
+      </c>
+      <c r="M75" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="N75" s="2">
+        <v>14.96</v>
+      </c>
+      <c r="O75" s="2">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="P75" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>314</v>
+      </c>
+      <c r="R75" s="2">
+        <v>1.63</v>
+      </c>
+      <c r="S75" s="2">
+        <v>1.92</v>
+      </c>
+      <c r="T75" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D76" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F76" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G76" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H76" s="2">
+        <v>100</v>
+      </c>
+      <c r="I76" s="2">
+        <v>10.56</v>
+      </c>
+      <c r="J76" s="2">
+        <v>14.38</v>
+      </c>
+      <c r="K76" s="2">
+        <v>81</v>
+      </c>
+      <c r="L76" s="2">
+        <v>1014</v>
+      </c>
+      <c r="M76" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="N76" s="2">
+        <v>14.74</v>
+      </c>
+      <c r="O76" s="2">
+        <v>4.08</v>
+      </c>
+      <c r="P76" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>302</v>
+      </c>
+      <c r="R76" s="2">
+        <v>1.36</v>
+      </c>
+      <c r="S76" s="2">
+        <v>1.53</v>
+      </c>
+      <c r="T76" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D77" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F77" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G77" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H77" s="2">
+        <v>100</v>
+      </c>
+      <c r="I77" s="2">
+        <v>10.77</v>
+      </c>
+      <c r="J77" s="2">
+        <v>14.51</v>
+      </c>
+      <c r="K77" s="2">
+        <v>82</v>
+      </c>
+      <c r="L77" s="2">
+        <v>1014</v>
+      </c>
+      <c r="M77" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="N77" s="2">
+        <v>14.83</v>
+      </c>
+      <c r="O77" s="2">
+        <v>2.34</v>
+      </c>
+      <c r="P77" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>277</v>
+      </c>
+      <c r="R77" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="S77" s="2">
+        <v>1.32</v>
+      </c>
+      <c r="T77" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D78" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F78" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G78" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="H78" s="2">
+        <v>100</v>
+      </c>
+      <c r="I78" s="2">
+        <v>10.76</v>
+      </c>
+      <c r="J78" s="2">
+        <v>14.27</v>
+      </c>
+      <c r="K78" s="2">
+        <v>83</v>
+      </c>
+      <c r="L78" s="2">
+        <v>1014</v>
+      </c>
+      <c r="M78" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="N78" s="2">
+        <v>14.59</v>
+      </c>
+      <c r="O78" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="P78" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>265</v>
+      </c>
+      <c r="R78" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S78" s="2">
+        <v>1.27</v>
+      </c>
+      <c r="T78" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D79" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F79" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G79" s="7">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H79" s="2">
+        <v>100</v>
+      </c>
+      <c r="I79" s="2">
+        <v>10.74</v>
+      </c>
+      <c r="J79" s="2">
+        <v>13.73</v>
+      </c>
+      <c r="K79" s="2">
+        <v>86</v>
+      </c>
+      <c r="L79" s="2">
+        <v>1015</v>
+      </c>
+      <c r="M79" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="N79" s="2">
+        <v>14.03</v>
+      </c>
+      <c r="O79" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="P79" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>267</v>
+      </c>
+      <c r="R79" s="2">
+        <v>1.22</v>
+      </c>
+      <c r="S79" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="T79" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D80" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F80" s="6">
+        <v>44570</v>
+      </c>
+      <c r="G80" s="7">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="H80" s="2">
+        <v>99</v>
+      </c>
+      <c r="I80" s="2">
+        <v>10.08</v>
+      </c>
+      <c r="J80" s="2">
+        <v>12.04</v>
+      </c>
+      <c r="K80" s="2">
+        <v>92</v>
+      </c>
+      <c r="L80" s="2">
+        <v>1016</v>
+      </c>
+      <c r="M80" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="N80" s="2">
+        <v>12.35</v>
+      </c>
+      <c r="O80" s="2">
+        <v>0</v>
+      </c>
+      <c r="P80" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>271</v>
+      </c>
+      <c r="R80" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="S80" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="T80" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D81" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G81" s="7">
+        <v>0</v>
+      </c>
+      <c r="H81" s="2">
+        <v>99</v>
+      </c>
+      <c r="I81" s="2">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="J81" s="2">
+        <v>12.06</v>
+      </c>
+      <c r="K81" s="2">
+        <v>93</v>
+      </c>
+      <c r="L81" s="2">
+        <v>1016</v>
+      </c>
+      <c r="M81" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="N81" s="2">
+        <v>12.34</v>
+      </c>
+      <c r="O81" s="2">
+        <v>0</v>
+      </c>
+      <c r="P81" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>292</v>
+      </c>
+      <c r="R81" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="S81" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="T81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D82" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F82" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G82" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H82" s="2">
+        <v>100</v>
+      </c>
+      <c r="I82" s="2">
+        <v>10.19</v>
+      </c>
+      <c r="J82" s="2">
+        <v>12.05</v>
+      </c>
+      <c r="K82" s="2">
+        <v>93</v>
+      </c>
+      <c r="L82" s="2">
+        <v>1017</v>
+      </c>
+      <c r="N82" s="2">
+        <v>12.33</v>
+      </c>
+      <c r="O82" s="2">
+        <v>0</v>
+      </c>
+      <c r="P82" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>308</v>
+      </c>
+      <c r="R82" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="S82" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="T82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D83" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F83" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G83" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H83" s="2">
+        <v>99</v>
+      </c>
+      <c r="I83" s="2">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="J83" s="2">
+        <v>11.99</v>
+      </c>
+      <c r="K83" s="2">
+        <v>92</v>
+      </c>
+      <c r="L83" s="2">
+        <v>1018</v>
+      </c>
+      <c r="N83" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="O83" s="2">
+        <v>0</v>
+      </c>
+      <c r="P83" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>296</v>
+      </c>
+      <c r="R83" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="S83" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="T83" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D84" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G84" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="H84" s="2">
+        <v>99</v>
+      </c>
+      <c r="I84" s="2">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="J84" s="2">
+        <v>11.8</v>
+      </c>
+      <c r="K84" s="2">
+        <v>92</v>
+      </c>
+      <c r="L84" s="2">
+        <v>1018</v>
+      </c>
+      <c r="N84" s="2">
+        <v>12.13</v>
+      </c>
+      <c r="O84" s="2">
+        <v>0</v>
+      </c>
+      <c r="P84" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>318</v>
+      </c>
+      <c r="R84" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="S84" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="T84" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D85" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F85" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G85" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H85" s="2">
+        <v>98</v>
+      </c>
+      <c r="I85" s="2">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="J85" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="K85" s="2">
+        <v>92</v>
+      </c>
+      <c r="L85" s="2">
+        <v>1018</v>
+      </c>
+      <c r="N85" s="2">
+        <v>11.86</v>
+      </c>
+      <c r="O85" s="2">
+        <v>0</v>
+      </c>
+      <c r="P85" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>283</v>
+      </c>
+      <c r="R85" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="S85" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="T85" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D86" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F86" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G86" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H86" s="2">
+        <v>97</v>
+      </c>
+      <c r="I86" s="2">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="J86" s="2">
+        <v>11.27</v>
+      </c>
+      <c r="K86" s="2">
+        <v>91</v>
+      </c>
+      <c r="L86" s="2">
+        <v>1017</v>
+      </c>
+      <c r="N86" s="2">
+        <v>11.67</v>
+      </c>
+      <c r="O86" s="2">
+        <v>0</v>
+      </c>
+      <c r="P86" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>283</v>
+      </c>
+      <c r="R86" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="S86" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="T86" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D87" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F87" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G87" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H87" s="2">
+        <v>97</v>
+      </c>
+      <c r="I87" s="2">
+        <v>9.02</v>
+      </c>
+      <c r="J87" s="2">
+        <v>11.09</v>
+      </c>
+      <c r="K87" s="2">
+        <v>90</v>
+      </c>
+      <c r="L87" s="2">
+        <v>1016</v>
+      </c>
+      <c r="N87" s="2">
+        <v>11.53</v>
+      </c>
+      <c r="O87" s="2">
+        <v>0</v>
+      </c>
+      <c r="P87" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>232</v>
+      </c>
+      <c r="R87" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="S87" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="T87" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D88" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F88" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G88" s="7">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H88" s="2">
+        <v>94</v>
+      </c>
+      <c r="I88" s="2">
+        <v>8.56</v>
+      </c>
+      <c r="J88" s="2">
+        <v>10.51</v>
+      </c>
+      <c r="K88" s="2">
+        <v>91</v>
+      </c>
+      <c r="L88" s="2">
+        <v>1016</v>
+      </c>
+      <c r="N88" s="2">
+        <v>10.98</v>
+      </c>
+      <c r="O88" s="2">
+        <v>0</v>
+      </c>
+      <c r="P88" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>252</v>
+      </c>
+      <c r="R88" s="2">
+        <v>1.32</v>
+      </c>
+      <c r="S88" s="2">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="T88" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D89" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F89" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G89" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H89" s="2">
+        <v>90</v>
+      </c>
+      <c r="I89" s="2">
+        <v>8.35</v>
+      </c>
+      <c r="J89" s="2">
+        <v>10.08</v>
+      </c>
+      <c r="K89" s="2">
+        <v>92</v>
+      </c>
+      <c r="L89" s="2">
+        <v>1016</v>
+      </c>
+      <c r="N89" s="2">
+        <v>10.57</v>
+      </c>
+      <c r="O89" s="2">
+        <v>0</v>
+      </c>
+      <c r="P89" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>263</v>
+      </c>
+      <c r="R89" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="S89" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="T89" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D90" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F90" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G90" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="H90" s="2">
+        <v>94</v>
+      </c>
+      <c r="I90" s="2">
+        <v>8</v>
+      </c>
+      <c r="J90" s="2">
+        <v>9.67</v>
+      </c>
+      <c r="K90" s="2">
+        <v>92</v>
+      </c>
+      <c r="L90" s="2">
+        <v>1016</v>
+      </c>
+      <c r="N90" s="2">
+        <v>10.19</v>
+      </c>
+      <c r="O90" s="2">
+        <v>0</v>
+      </c>
+      <c r="P90" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>256</v>
+      </c>
+      <c r="R90" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="S90" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="T90" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D91" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F91" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G91" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H91" s="2">
+        <v>95</v>
+      </c>
+      <c r="I91" s="2">
+        <v>7.84</v>
+      </c>
+      <c r="J91" s="2">
+        <v>9.49</v>
+      </c>
+      <c r="K91" s="2">
+        <v>92</v>
+      </c>
+      <c r="L91" s="2">
+        <v>1017</v>
+      </c>
+      <c r="N91" s="2">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="O91" s="2">
+        <v>0</v>
+      </c>
+      <c r="P91" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>292</v>
+      </c>
+      <c r="R91" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="S91" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="T91" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D92" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F92" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G92" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H92" s="2">
+        <v>95</v>
+      </c>
+      <c r="I92" s="2">
+        <v>7.73</v>
+      </c>
+      <c r="J92" s="2">
+        <v>9.89</v>
+      </c>
+      <c r="K92" s="2">
+        <v>93</v>
+      </c>
+      <c r="L92" s="2">
+        <v>1018</v>
+      </c>
+      <c r="N92" s="2">
+        <v>9.89</v>
+      </c>
+      <c r="O92" s="2">
+        <v>0</v>
+      </c>
+      <c r="P92" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>315</v>
+      </c>
+      <c r="R92" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="S92" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="T92" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D93" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F93" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G93" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H93" s="2">
+        <v>96</v>
+      </c>
+      <c r="I93" s="2">
+        <v>8.32</v>
+      </c>
+      <c r="J93" s="2">
+        <v>10.38</v>
+      </c>
+      <c r="K93" s="2">
+        <v>90</v>
+      </c>
+      <c r="L93" s="2">
+        <v>1018</v>
+      </c>
+      <c r="N93" s="2">
+        <v>10.89</v>
+      </c>
+      <c r="O93" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="P93" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>304</v>
+      </c>
+      <c r="R93" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="S93" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="T93" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D94" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F94" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G94" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H94" s="2">
+        <v>96</v>
+      </c>
+      <c r="I94" s="2">
+        <v>8.77</v>
+      </c>
+      <c r="J94" s="2">
+        <v>12.19</v>
+      </c>
+      <c r="K94" s="2">
+        <v>82</v>
+      </c>
+      <c r="L94" s="2">
+        <v>1019</v>
+      </c>
+      <c r="N94" s="2">
+        <v>12.72</v>
+      </c>
+      <c r="O94" s="2">
+        <v>1.91</v>
+      </c>
+      <c r="P94" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>267</v>
+      </c>
+      <c r="R94" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="S94" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="T94" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D95" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F95" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G95" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H95" s="2">
+        <v>93</v>
+      </c>
+      <c r="I95" s="2">
+        <v>9.01</v>
+      </c>
+      <c r="J95" s="2">
+        <v>13.87</v>
+      </c>
+      <c r="K95" s="2">
+        <v>74</v>
+      </c>
+      <c r="L95" s="2">
+        <v>1018</v>
+      </c>
+      <c r="N95" s="2">
+        <v>14.44</v>
+      </c>
+      <c r="O95" s="2">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="P95" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>247</v>
+      </c>
+      <c r="R95" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="S95" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="T95" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D96" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F96" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G96" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="H96" s="2">
+        <v>92</v>
+      </c>
+      <c r="I96" s="2">
+        <v>9.16</v>
+      </c>
+      <c r="J96" s="2">
+        <v>15.18</v>
+      </c>
+      <c r="K96" s="2">
+        <v>69</v>
+      </c>
+      <c r="L96" s="2">
+        <v>1017</v>
+      </c>
+      <c r="N96" s="2">
+        <v>15.75</v>
+      </c>
+      <c r="O96" s="2">
+        <v>7.59</v>
+      </c>
+      <c r="P96" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>241</v>
+      </c>
+      <c r="R96" s="2">
+        <v>1.49</v>
+      </c>
+      <c r="S96" s="2">
+        <v>2.08</v>
+      </c>
+      <c r="T96" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>52055170</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C97" s="2">
+        <v>0.93030599999999997</v>
+      </c>
+      <c r="D97" s="2">
+        <v>-77.491193999999993</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F97" s="6">
+        <v>44571</v>
+      </c>
+      <c r="G97" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H97" s="2">
+        <v>94</v>
+      </c>
+      <c r="I97" s="2">
+        <v>9.49</v>
+      </c>
+      <c r="J97" s="2">
+        <v>15.94</v>
+      </c>
+      <c r="K97" s="2">
+        <v>68</v>
+      </c>
+      <c r="L97" s="2">
+        <v>1016</v>
+      </c>
+      <c r="M97" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="N97" s="2">
+        <v>16.46</v>
+      </c>
+      <c r="O97" s="2">
+        <v>10.34</v>
+      </c>
+      <c r="P97" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>245</v>
+      </c>
+      <c r="R97" s="2">
+        <v>1.83</v>
+      </c>
+      <c r="S97" s="2">
+        <v>2.29</v>
+      </c>
+      <c r="T97" s="2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
